--- a/Config/__tables__.xlsx
+++ b/Config/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>reward.xlsx</t>
+  </si>
+  <si>
+    <t>list.TbListTest</t>
+  </si>
+  <si>
+    <t>ListTest</t>
+  </si>
+  <si>
+    <t>listtest.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1066,13 +1075,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="10.1333333333333" customWidth="1"/>
@@ -1212,6 +1221,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/__tables__.xlsx
+++ b/Config/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>listtest.xlsx</t>
+  </si>
+  <si>
+    <t>streaming.TBStrteaming</t>
+  </si>
+  <si>
+    <t>StreamingTest</t>
+  </si>
+  <si>
+    <t>streamingtest.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1075,13 +1084,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="10.1333333333333" customWidth="1"/>
@@ -1235,6 +1244,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/__tables__.xlsx
+++ b/Config/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>streamingtest.xlsx</t>
+  </si>
+  <si>
+    <t>i18n.TbLang</t>
+  </si>
+  <si>
+    <t>Lang</t>
+  </si>
+  <si>
+    <t>langtest.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1084,13 +1093,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="10.1333333333333" customWidth="1"/>
@@ -1258,6 +1267,20 @@
         <v>42</v>
       </c>
     </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
